--- a/Excel/Spell.xlsx
+++ b/Excel/Spell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B3F86F-5162-473C-A545-DA981B27DD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CEC26C-555D-4C62-9D0F-972E66D469E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CEF93E7F-3D12-4598-BA9F-66D9B4B0AF63}"/>
   </bookViews>
@@ -5064,7 +5064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317E864B-15EB-4948-9DE5-0E4F083F819F}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5090,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>

--- a/Excel/Spell.xlsx
+++ b/Excel/Spell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF996D0-F0EB-493A-A4CF-163C5F1959E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB54EDE-472B-49A5-AF8C-5014D4AAE798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CEF93E7F-3D12-4598-BA9F-66D9B4B0AF63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEF93E7F-3D12-4598-BA9F-66D9B4B0AF63}"/>
   </bookViews>
   <sheets>
     <sheet name="SpellGradeLevelTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>grade|Int</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>accumulatedAtk|Int</t>
-  </si>
-  <si>
-    <t>requiredPowerPoint|Int</t>
-  </si>
-  <si>
-    <t>requiredAccumulatedPowerPoint|Int</t>
   </si>
   <si>
     <t>requiredGold|Int</t>
@@ -427,7 +421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C777E6-C756-4F4E-80D3-C7AAD9460133}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -445,13 +441,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -491,10 +487,10 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>200</v>
@@ -514,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>500</v>
@@ -537,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>1000</v>
@@ -560,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>1500</v>
@@ -583,10 +579,10 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>2000</v>
@@ -606,10 +602,10 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>2500</v>
@@ -629,10 +625,10 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>3000</v>
@@ -652,10 +648,10 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>260</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>3500</v>
@@ -675,10 +671,10 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>315</v>
+        <v>18</v>
       </c>
       <c r="G11">
         <v>4000</v>
@@ -698,10 +694,10 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>375</v>
+        <v>22</v>
       </c>
       <c r="G12">
         <v>4500</v>
@@ -721,10 +717,10 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>440</v>
+        <v>27</v>
       </c>
       <c r="G13">
         <v>5000</v>
@@ -744,10 +740,10 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>510</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>5500</v>
@@ -767,10 +763,10 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>585</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>6000</v>
@@ -790,10 +786,10 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F16">
-        <v>665</v>
+        <v>45</v>
       </c>
       <c r="G16">
         <v>6500</v>
@@ -813,10 +809,10 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>750</v>
+        <v>53</v>
       </c>
       <c r="G17">
         <v>7000</v>
@@ -836,10 +832,10 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>840</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>7500</v>
@@ -859,10 +855,10 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>935</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>8000</v>
@@ -882,10 +878,10 @@
         <v>19</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>1035</v>
+        <v>83</v>
       </c>
       <c r="G20">
         <v>8500</v>
@@ -905,10 +901,10 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="F21">
-        <v>1140</v>
+        <v>95</v>
       </c>
       <c r="G21">
         <v>9000</v>
@@ -951,10 +947,10 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>300</v>
@@ -974,10 +970,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>600</v>
@@ -997,10 +993,10 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>1100</v>
@@ -1020,10 +1016,10 @@
         <v>6</v>
       </c>
       <c r="E26">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="G26">
         <v>1600</v>
@@ -1043,10 +1039,10 @@
         <v>7</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="G27">
         <v>2100</v>
@@ -1066,10 +1062,10 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="G28">
         <v>2600</v>
@@ -1089,10 +1085,10 @@
         <v>9</v>
       </c>
       <c r="E29">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="G29">
         <v>3100</v>
@@ -1112,10 +1108,10 @@
         <v>10</v>
       </c>
       <c r="E30">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="G30">
         <v>3600</v>
@@ -1135,10 +1131,10 @@
         <v>11</v>
       </c>
       <c r="E31">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="G31">
         <v>4100</v>
@@ -1158,10 +1154,10 @@
         <v>12</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="G32">
         <v>4600</v>
@@ -1181,10 +1177,10 @@
         <v>13</v>
       </c>
       <c r="E33">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>374</v>
+        <v>27</v>
       </c>
       <c r="G33">
         <v>5100</v>
@@ -1204,10 +1200,10 @@
         <v>14</v>
       </c>
       <c r="E34">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>432</v>
+        <v>32</v>
       </c>
       <c r="G34">
         <v>5600</v>
@@ -1227,10 +1223,10 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="F35">
-        <v>494</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>6100</v>
@@ -1250,10 +1246,10 @@
         <v>16</v>
       </c>
       <c r="E36">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="F36">
-        <v>560</v>
+        <v>45</v>
       </c>
       <c r="G36">
         <v>6600</v>
@@ -1273,10 +1269,10 @@
         <v>17</v>
       </c>
       <c r="E37">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="F37">
-        <v>630</v>
+        <v>53</v>
       </c>
       <c r="G37">
         <v>7100</v>
@@ -1296,10 +1292,10 @@
         <v>18</v>
       </c>
       <c r="E38">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="F38">
-        <v>704</v>
+        <v>62</v>
       </c>
       <c r="G38">
         <v>7600</v>
@@ -1319,10 +1315,10 @@
         <v>19</v>
       </c>
       <c r="E39">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="F39">
-        <v>782</v>
+        <v>72</v>
       </c>
       <c r="G39">
         <v>8100</v>
@@ -1342,10 +1338,10 @@
         <v>20</v>
       </c>
       <c r="E40">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="F40">
-        <v>864</v>
+        <v>83</v>
       </c>
       <c r="G40">
         <v>8600</v>
@@ -1365,10 +1361,10 @@
         <v>21</v>
       </c>
       <c r="E41">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="F41">
-        <v>950</v>
+        <v>95</v>
       </c>
       <c r="G41">
         <v>9100</v>
@@ -1411,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="E43">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>400</v>
@@ -1434,10 +1430,10 @@
         <v>5</v>
       </c>
       <c r="E44">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <v>700</v>
@@ -1457,10 +1453,10 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G45">
         <v>1200</v>
@@ -1480,10 +1476,10 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="G46">
         <v>1700</v>
@@ -1503,10 +1499,10 @@
         <v>8</v>
       </c>
       <c r="E47">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="G47">
         <v>2200</v>
@@ -1526,10 +1522,10 @@
         <v>9</v>
       </c>
       <c r="E48">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F48">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="G48">
         <v>2700</v>
@@ -1549,10 +1545,10 @@
         <v>10</v>
       </c>
       <c r="E49">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F49">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>3200</v>
@@ -1572,10 +1568,10 @@
         <v>11</v>
       </c>
       <c r="E50">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F50">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="G50">
         <v>3700</v>
@@ -1595,10 +1591,10 @@
         <v>12</v>
       </c>
       <c r="E51">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F51">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="G51">
         <v>4200</v>
@@ -1618,10 +1614,10 @@
         <v>13</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="G52">
         <v>4700</v>
@@ -1641,10 +1637,10 @@
         <v>14</v>
       </c>
       <c r="E53">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>308</v>
+        <v>27</v>
       </c>
       <c r="G53">
         <v>5200</v>
@@ -1664,10 +1660,10 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="F54">
-        <v>354</v>
+        <v>32</v>
       </c>
       <c r="G54">
         <v>5700</v>
@@ -1687,10 +1683,10 @@
         <v>16</v>
       </c>
       <c r="E55">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="F55">
-        <v>403</v>
+        <v>38</v>
       </c>
       <c r="G55">
         <v>6200</v>
@@ -1710,10 +1706,10 @@
         <v>17</v>
       </c>
       <c r="E56">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="F56">
-        <v>455</v>
+        <v>45</v>
       </c>
       <c r="G56">
         <v>6700</v>
@@ -1733,10 +1729,10 @@
         <v>18</v>
       </c>
       <c r="E57">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="F57">
-        <v>510</v>
+        <v>53</v>
       </c>
       <c r="G57">
         <v>7200</v>
@@ -1756,10 +1752,10 @@
         <v>19</v>
       </c>
       <c r="E58">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F58">
-        <v>568</v>
+        <v>62</v>
       </c>
       <c r="G58">
         <v>7700</v>
@@ -1779,10 +1775,10 @@
         <v>20</v>
       </c>
       <c r="E59">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F59">
-        <v>629</v>
+        <v>72</v>
       </c>
       <c r="G59">
         <v>8200</v>
@@ -1802,10 +1798,10 @@
         <v>21</v>
       </c>
       <c r="E60">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F60">
-        <v>693</v>
+        <v>83</v>
       </c>
       <c r="G60">
         <v>8700</v>
@@ -1825,10 +1821,10 @@
         <v>22</v>
       </c>
       <c r="E61">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F61">
-        <v>760</v>
+        <v>95</v>
       </c>
       <c r="G61">
         <v>9200</v>
@@ -1871,10 +1867,10 @@
         <v>5</v>
       </c>
       <c r="E63">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>500</v>
@@ -1894,10 +1890,10 @@
         <v>6</v>
       </c>
       <c r="E64">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="G64">
         <v>800</v>
@@ -1917,10 +1913,10 @@
         <v>7</v>
       </c>
       <c r="E65">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="G65">
         <v>1300</v>
@@ -1940,10 +1936,10 @@
         <v>8</v>
       </c>
       <c r="E66">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="G66">
         <v>1800</v>
@@ -1963,10 +1959,10 @@
         <v>9</v>
       </c>
       <c r="E67">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F67">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="G67">
         <v>2300</v>
@@ -1986,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="E68">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F68">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="G68">
         <v>2800</v>
@@ -2009,10 +2005,10 @@
         <v>11</v>
       </c>
       <c r="E69">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F69">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="G69">
         <v>3300</v>
@@ -2032,10 +2028,10 @@
         <v>12</v>
       </c>
       <c r="E70">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F70">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="G70">
         <v>3800</v>
@@ -2055,10 +2051,10 @@
         <v>13</v>
       </c>
       <c r="E71">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F71">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="G71">
         <v>4300</v>
@@ -2078,10 +2074,10 @@
         <v>14</v>
       </c>
       <c r="E72">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F72">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="G72">
         <v>4800</v>
@@ -2101,10 +2097,10 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F73">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="G73">
         <v>5300</v>
@@ -2124,10 +2120,10 @@
         <v>16</v>
       </c>
       <c r="E74">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F74">
-        <v>276</v>
+        <v>32</v>
       </c>
       <c r="G74">
         <v>5800</v>
@@ -2147,10 +2143,10 @@
         <v>17</v>
       </c>
       <c r="E75">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F75">
-        <v>312</v>
+        <v>38</v>
       </c>
       <c r="G75">
         <v>6300</v>
@@ -2170,10 +2166,10 @@
         <v>18</v>
       </c>
       <c r="E76">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F76">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="G76">
         <v>6800</v>
@@ -2193,10 +2189,10 @@
         <v>19</v>
       </c>
       <c r="E77">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F77">
-        <v>390</v>
+        <v>53</v>
       </c>
       <c r="G77">
         <v>7300</v>
@@ -2216,10 +2212,10 @@
         <v>20</v>
       </c>
       <c r="E78">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F78">
-        <v>432</v>
+        <v>62</v>
       </c>
       <c r="G78">
         <v>7800</v>
@@ -2239,10 +2235,10 @@
         <v>21</v>
       </c>
       <c r="E79">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F79">
-        <v>476</v>
+        <v>72</v>
       </c>
       <c r="G79">
         <v>8300</v>
@@ -2262,10 +2258,10 @@
         <v>22</v>
       </c>
       <c r="E80">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F80">
-        <v>522</v>
+        <v>83</v>
       </c>
       <c r="G80">
         <v>8800</v>
@@ -2285,10 +2281,10 @@
         <v>23</v>
       </c>
       <c r="E81">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F81">
-        <v>570</v>
+        <v>95</v>
       </c>
       <c r="G81">
         <v>9300</v>
@@ -2331,10 +2327,10 @@
         <v>6</v>
       </c>
       <c r="E83">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>600</v>
@@ -2354,10 +2350,10 @@
         <v>7</v>
       </c>
       <c r="E84">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G84">
         <v>900</v>
@@ -2377,10 +2373,10 @@
         <v>8</v>
       </c>
       <c r="E85">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="G85">
         <v>1400</v>
@@ -2400,10 +2396,10 @@
         <v>9</v>
       </c>
       <c r="E86">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G86">
         <v>1900</v>
@@ -2423,10 +2419,10 @@
         <v>10</v>
       </c>
       <c r="E87">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F87">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="G87">
         <v>2400</v>
@@ -2446,10 +2442,10 @@
         <v>11</v>
       </c>
       <c r="E88">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F88">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="G88">
         <v>2900</v>
@@ -2469,10 +2465,10 @@
         <v>12</v>
       </c>
       <c r="E89">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F89">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="G89">
         <v>3400</v>
@@ -2492,10 +2488,10 @@
         <v>13</v>
       </c>
       <c r="E90">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F90">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="G90">
         <v>3900</v>
@@ -2515,10 +2511,10 @@
         <v>14</v>
       </c>
       <c r="E91">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F91">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="G91">
         <v>4400</v>
@@ -2538,10 +2534,10 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F92">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="G92">
         <v>4900</v>
@@ -2561,10 +2557,10 @@
         <v>16</v>
       </c>
       <c r="E93">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F93">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="G93">
         <v>5400</v>
@@ -2584,10 +2580,10 @@
         <v>17</v>
       </c>
       <c r="E94">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F94">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="G94">
         <v>5900</v>
@@ -2607,10 +2603,10 @@
         <v>18</v>
       </c>
       <c r="E95">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F95">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="G95">
         <v>6400</v>
@@ -2630,10 +2626,10 @@
         <v>19</v>
       </c>
       <c r="E96">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F96">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="G96">
         <v>6900</v>
@@ -2653,10 +2649,10 @@
         <v>20</v>
       </c>
       <c r="E97">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F97">
-        <v>270</v>
+        <v>53</v>
       </c>
       <c r="G97">
         <v>7400</v>
@@ -2676,10 +2672,10 @@
         <v>21</v>
       </c>
       <c r="E98">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F98">
-        <v>296</v>
+        <v>62</v>
       </c>
       <c r="G98">
         <v>7900</v>
@@ -2699,10 +2695,10 @@
         <v>22</v>
       </c>
       <c r="E99">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F99">
-        <v>323</v>
+        <v>72</v>
       </c>
       <c r="G99">
         <v>8400</v>
@@ -2722,10 +2718,10 @@
         <v>23</v>
       </c>
       <c r="E100">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F100">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="G100">
         <v>8900</v>
@@ -2745,10 +2741,10 @@
         <v>24</v>
       </c>
       <c r="E101">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F101">
-        <v>380</v>
+        <v>95</v>
       </c>
       <c r="G101">
         <v>9400</v>
@@ -2791,10 +2787,10 @@
         <v>12</v>
       </c>
       <c r="E103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <v>700</v>
@@ -2814,10 +2810,10 @@
         <v>13</v>
       </c>
       <c r="E104">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G104">
         <v>1000</v>
@@ -2837,10 +2833,10 @@
         <v>14</v>
       </c>
       <c r="E105">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G105">
         <v>1500</v>
@@ -2860,10 +2856,10 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G106">
         <v>2000</v>
@@ -2883,10 +2879,10 @@
         <v>16</v>
       </c>
       <c r="E107">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F107">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="G107">
         <v>2500</v>
@@ -2906,10 +2902,10 @@
         <v>17</v>
       </c>
       <c r="E108">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F108">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="G108">
         <v>3000</v>
@@ -2929,10 +2925,10 @@
         <v>18</v>
       </c>
       <c r="E109">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F109">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="G109">
         <v>3500</v>
@@ -2952,10 +2948,10 @@
         <v>19</v>
       </c>
       <c r="E110">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="F110">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="G110">
         <v>4000</v>
@@ -2975,10 +2971,10 @@
         <v>20</v>
       </c>
       <c r="E111">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F111">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="G111">
         <v>4500</v>
@@ -2998,10 +2994,10 @@
         <v>21</v>
       </c>
       <c r="E112">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F112">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="G112">
         <v>5000</v>
@@ -3021,10 +3017,10 @@
         <v>22</v>
       </c>
       <c r="E113">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="F113">
-        <v>330</v>
+        <v>27</v>
       </c>
       <c r="G113">
         <v>5500</v>
@@ -3044,10 +3040,10 @@
         <v>23</v>
       </c>
       <c r="E114">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F114">
-        <v>390</v>
+        <v>32</v>
       </c>
       <c r="G114">
         <v>6000</v>
@@ -3067,10 +3063,10 @@
         <v>24</v>
       </c>
       <c r="E115">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="F115">
-        <v>455</v>
+        <v>38</v>
       </c>
       <c r="G115">
         <v>6500</v>
@@ -3090,10 +3086,10 @@
         <v>25</v>
       </c>
       <c r="E116">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="F116">
-        <v>525</v>
+        <v>45</v>
       </c>
       <c r="G116">
         <v>7000</v>
@@ -3113,10 +3109,10 @@
         <v>26</v>
       </c>
       <c r="E117">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="F117">
-        <v>600</v>
+        <v>53</v>
       </c>
       <c r="G117">
         <v>7500</v>
@@ -3136,10 +3132,10 @@
         <v>27</v>
       </c>
       <c r="E118">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="F118">
-        <v>680</v>
+        <v>62</v>
       </c>
       <c r="G118">
         <v>8000</v>
@@ -3159,10 +3155,10 @@
         <v>28</v>
       </c>
       <c r="E119">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="F119">
-        <v>765</v>
+        <v>72</v>
       </c>
       <c r="G119">
         <v>8500</v>
@@ -3182,10 +3178,10 @@
         <v>29</v>
       </c>
       <c r="E120">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="F120">
-        <v>855</v>
+        <v>83</v>
       </c>
       <c r="G120">
         <v>9000</v>
@@ -3205,10 +3201,10 @@
         <v>30</v>
       </c>
       <c r="E121">
+        <v>12</v>
+      </c>
+      <c r="F121">
         <v>95</v>
-      </c>
-      <c r="F121">
-        <v>950</v>
       </c>
       <c r="G121">
         <v>9500</v>
@@ -3251,10 +3247,10 @@
         <v>13</v>
       </c>
       <c r="E123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G123">
         <v>800</v>
@@ -3274,10 +3270,10 @@
         <v>14</v>
       </c>
       <c r="E124">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G124">
         <v>1100</v>
@@ -3297,10 +3293,10 @@
         <v>15</v>
       </c>
       <c r="E125">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G125">
         <v>1600</v>
@@ -3320,10 +3316,10 @@
         <v>16</v>
       </c>
       <c r="E126">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G126">
         <v>2100</v>
@@ -3343,10 +3339,10 @@
         <v>17</v>
       </c>
       <c r="E127">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F127">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="G127">
         <v>2600</v>
@@ -3366,10 +3362,10 @@
         <v>18</v>
       </c>
       <c r="E128">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F128">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="G128">
         <v>3100</v>
@@ -3389,10 +3385,10 @@
         <v>19</v>
       </c>
       <c r="E129">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F129">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="G129">
         <v>3600</v>
@@ -3412,10 +3408,10 @@
         <v>20</v>
       </c>
       <c r="E130">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F130">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="G130">
         <v>4100</v>
@@ -3435,10 +3431,10 @@
         <v>21</v>
       </c>
       <c r="E131">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F131">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="G131">
         <v>4600</v>
@@ -3458,10 +3454,10 @@
         <v>22</v>
       </c>
       <c r="E132">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F132">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="G132">
         <v>5100</v>
@@ -3481,10 +3477,10 @@
         <v>23</v>
       </c>
       <c r="E133">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F133">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="G133">
         <v>5600</v>
@@ -3504,10 +3500,10 @@
         <v>24</v>
       </c>
       <c r="E134">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F134">
-        <v>312</v>
+        <v>32</v>
       </c>
       <c r="G134">
         <v>6100</v>
@@ -3527,10 +3523,10 @@
         <v>25</v>
       </c>
       <c r="E135">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="F135">
-        <v>364</v>
+        <v>38</v>
       </c>
       <c r="G135">
         <v>6600</v>
@@ -3550,10 +3546,10 @@
         <v>26</v>
       </c>
       <c r="E136">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="F136">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="G136">
         <v>7100</v>
@@ -3573,10 +3569,10 @@
         <v>27</v>
       </c>
       <c r="E137">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F137">
-        <v>480</v>
+        <v>53</v>
       </c>
       <c r="G137">
         <v>7600</v>
@@ -3596,10 +3592,10 @@
         <v>28</v>
       </c>
       <c r="E138">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="F138">
-        <v>544</v>
+        <v>62</v>
       </c>
       <c r="G138">
         <v>8100</v>
@@ -3619,10 +3615,10 @@
         <v>29</v>
       </c>
       <c r="E139">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="F139">
-        <v>612</v>
+        <v>72</v>
       </c>
       <c r="G139">
         <v>8600</v>
@@ -3642,10 +3638,10 @@
         <v>30</v>
       </c>
       <c r="E140">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F140">
-        <v>684</v>
+        <v>83</v>
       </c>
       <c r="G140">
         <v>9100</v>
@@ -3665,10 +3661,10 @@
         <v>31</v>
       </c>
       <c r="E141">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="F141">
-        <v>760</v>
+        <v>95</v>
       </c>
       <c r="G141">
         <v>9600</v>
@@ -3711,10 +3707,10 @@
         <v>14</v>
       </c>
       <c r="E143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G143">
         <v>900</v>
@@ -3734,10 +3730,10 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G144">
         <v>1200</v>
@@ -3757,10 +3753,10 @@
         <v>16</v>
       </c>
       <c r="E145">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G145">
         <v>1700</v>
@@ -3780,10 +3776,10 @@
         <v>17</v>
       </c>
       <c r="E146">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G146">
         <v>2200</v>
@@ -3803,10 +3799,10 @@
         <v>18</v>
       </c>
       <c r="E147">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F147">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="G147">
         <v>2700</v>
@@ -3826,10 +3822,10 @@
         <v>19</v>
       </c>
       <c r="E148">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F148">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="G148">
         <v>3200</v>
@@ -3849,10 +3845,10 @@
         <v>20</v>
       </c>
       <c r="E149">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F149">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="G149">
         <v>3700</v>
@@ -3872,10 +3868,10 @@
         <v>21</v>
       </c>
       <c r="E150">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F150">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="G150">
         <v>4200</v>
@@ -3895,10 +3891,10 @@
         <v>22</v>
       </c>
       <c r="E151">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F151">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="G151">
         <v>4700</v>
@@ -3918,10 +3914,10 @@
         <v>23</v>
       </c>
       <c r="E152">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F152">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="G152">
         <v>5200</v>
@@ -3941,10 +3937,10 @@
         <v>24</v>
       </c>
       <c r="E153">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F153">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="G153">
         <v>5700</v>
@@ -3964,10 +3960,10 @@
         <v>25</v>
       </c>
       <c r="E154">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F154">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="G154">
         <v>6200</v>
@@ -3987,10 +3983,10 @@
         <v>26</v>
       </c>
       <c r="E155">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F155">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="G155">
         <v>6700</v>
@@ -4010,10 +4006,10 @@
         <v>27</v>
       </c>
       <c r="E156">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="F156">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="G156">
         <v>7200</v>
@@ -4033,10 +4029,10 @@
         <v>28</v>
       </c>
       <c r="E157">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F157">
-        <v>360</v>
+        <v>53</v>
       </c>
       <c r="G157">
         <v>7700</v>
@@ -4056,10 +4052,10 @@
         <v>29</v>
       </c>
       <c r="E158">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F158">
-        <v>408</v>
+        <v>62</v>
       </c>
       <c r="G158">
         <v>8200</v>
@@ -4079,10 +4075,10 @@
         <v>30</v>
       </c>
       <c r="E159">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="F159">
-        <v>459</v>
+        <v>72</v>
       </c>
       <c r="G159">
         <v>8700</v>
@@ -4102,10 +4098,10 @@
         <v>31</v>
       </c>
       <c r="E160">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F160">
-        <v>513</v>
+        <v>83</v>
       </c>
       <c r="G160">
         <v>9200</v>
@@ -4125,10 +4121,10 @@
         <v>32</v>
       </c>
       <c r="E161">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F161">
-        <v>570</v>
+        <v>95</v>
       </c>
       <c r="G161">
         <v>9700</v>
@@ -4171,10 +4167,10 @@
         <v>15</v>
       </c>
       <c r="E163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G163">
         <v>1000</v>
@@ -4194,10 +4190,10 @@
         <v>16</v>
       </c>
       <c r="E164">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G164">
         <v>1300</v>
@@ -4217,10 +4213,10 @@
         <v>17</v>
       </c>
       <c r="E165">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G165">
         <v>1800</v>
@@ -4240,10 +4236,10 @@
         <v>18</v>
       </c>
       <c r="E166">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G166">
         <v>2300</v>
@@ -4263,10 +4259,10 @@
         <v>19</v>
       </c>
       <c r="E167">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F167">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G167">
         <v>2800</v>
@@ -4286,10 +4282,10 @@
         <v>20</v>
       </c>
       <c r="E168">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F168">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="G168">
         <v>3300</v>
@@ -4309,10 +4305,10 @@
         <v>21</v>
       </c>
       <c r="E169">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F169">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G169">
         <v>3800</v>
@@ -4332,10 +4328,10 @@
         <v>22</v>
       </c>
       <c r="E170">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F170">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="G170">
         <v>4300</v>
@@ -4355,10 +4351,10 @@
         <v>23</v>
       </c>
       <c r="E171">
+        <v>4</v>
+      </c>
+      <c r="F171">
         <v>18</v>
-      </c>
-      <c r="F171">
-        <v>90</v>
       </c>
       <c r="G171">
         <v>4800</v>
@@ -4378,10 +4374,10 @@
         <v>24</v>
       </c>
       <c r="E172">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F172">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="G172">
         <v>5300</v>
@@ -4401,10 +4397,10 @@
         <v>25</v>
       </c>
       <c r="E173">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F173">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="G173">
         <v>5800</v>
@@ -4424,10 +4420,10 @@
         <v>26</v>
       </c>
       <c r="E174">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F174">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="G174">
         <v>6300</v>
@@ -4447,10 +4443,10 @@
         <v>27</v>
       </c>
       <c r="E175">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F175">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="G175">
         <v>6800</v>
@@ -4470,10 +4466,10 @@
         <v>28</v>
       </c>
       <c r="E176">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F176">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="G176">
         <v>7300</v>
@@ -4493,10 +4489,10 @@
         <v>29</v>
       </c>
       <c r="E177">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F177">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="G177">
         <v>7800</v>
@@ -4516,10 +4512,10 @@
         <v>30</v>
       </c>
       <c r="E178">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F178">
-        <v>272</v>
+        <v>62</v>
       </c>
       <c r="G178">
         <v>8300</v>
@@ -4539,10 +4535,10 @@
         <v>31</v>
       </c>
       <c r="E179">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F179">
-        <v>306</v>
+        <v>72</v>
       </c>
       <c r="G179">
         <v>8800</v>
@@ -4562,10 +4558,10 @@
         <v>32</v>
       </c>
       <c r="E180">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F180">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="G180">
         <v>9300</v>
@@ -4585,10 +4581,10 @@
         <v>33</v>
       </c>
       <c r="E181">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F181">
-        <v>380</v>
+        <v>95</v>
       </c>
       <c r="G181">
         <v>9800</v>
@@ -4654,10 +4650,10 @@
         <v>17</v>
       </c>
       <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
         <v>2</v>
-      </c>
-      <c r="F184">
-        <v>3</v>
       </c>
       <c r="G184">
         <v>1400</v>
@@ -4677,10 +4673,10 @@
         <v>18</v>
       </c>
       <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
         <v>3</v>
-      </c>
-      <c r="F185">
-        <v>6</v>
       </c>
       <c r="G185">
         <v>1900</v>
@@ -4700,10 +4696,10 @@
         <v>19</v>
       </c>
       <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
         <v>4</v>
-      </c>
-      <c r="F186">
-        <v>10</v>
       </c>
       <c r="G186">
         <v>2400</v>
@@ -4723,10 +4719,10 @@
         <v>20</v>
       </c>
       <c r="E187">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F187">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G187">
         <v>2900</v>
@@ -4746,10 +4742,10 @@
         <v>21</v>
       </c>
       <c r="E188">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F188">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G188">
         <v>3400</v>
@@ -4769,10 +4765,10 @@
         <v>22</v>
       </c>
       <c r="E189">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F189">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G189">
         <v>3900</v>
@@ -4792,10 +4788,10 @@
         <v>23</v>
       </c>
       <c r="E190">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F190">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G190">
         <v>4400</v>
@@ -4815,10 +4811,10 @@
         <v>24</v>
       </c>
       <c r="E191">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F191">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G191">
         <v>4900</v>
@@ -4838,10 +4834,10 @@
         <v>25</v>
       </c>
       <c r="E192">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F192">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="G192">
         <v>5400</v>
@@ -4861,10 +4857,10 @@
         <v>26</v>
       </c>
       <c r="E193">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F193">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="G193">
         <v>5900</v>
@@ -4884,10 +4880,10 @@
         <v>27</v>
       </c>
       <c r="E194">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F194">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="G194">
         <v>6400</v>
@@ -4907,10 +4903,10 @@
         <v>28</v>
       </c>
       <c r="E195">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F195">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="G195">
         <v>6900</v>
@@ -4930,10 +4926,10 @@
         <v>29</v>
       </c>
       <c r="E196">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F196">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="G196">
         <v>7400</v>
@@ -4953,10 +4949,10 @@
         <v>30</v>
       </c>
       <c r="E197">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F197">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="G197">
         <v>7900</v>
@@ -4976,10 +4972,10 @@
         <v>31</v>
       </c>
       <c r="E198">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F198">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="G198">
         <v>8400</v>
@@ -4999,10 +4995,10 @@
         <v>32</v>
       </c>
       <c r="E199">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F199">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="G199">
         <v>8900</v>
@@ -5022,10 +5018,10 @@
         <v>33</v>
       </c>
       <c r="E200">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F200">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="G200">
         <v>9400</v>
@@ -5045,10 +5041,10 @@
         <v>34</v>
       </c>
       <c r="E201">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F201">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="G201">
         <v>9900</v>
@@ -5064,7 +5060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317E864B-15EB-4948-9DE5-0E4F083F819F}">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5078,13 +5074,13 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/Excel/Spell.xlsx
+++ b/Excel/Spell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0828A383-5DCF-45ED-8CF0-B52B176D1E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2427EC-4A60-4AD1-AC69-F3696FC91FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{CEF93E7F-3D12-4598-BA9F-66D9B4B0AF63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CEF93E7F-3D12-4598-BA9F-66D9B4B0AF63}"/>
   </bookViews>
   <sheets>
     <sheet name="SpellGradeLevelTable" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C777E6-C756-4F4E-80D3-C7AAD9460133}">
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -516,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -562,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -585,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -608,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -631,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="G9">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -654,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="G10">
-        <v>60</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -677,7 +677,7 @@
         <v>19</v>
       </c>
       <c r="G11">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -700,7 +700,7 @@
         <v>23</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -723,7 +723,7 @@
         <v>28</v>
       </c>
       <c r="G13">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -746,7 +746,7 @@
         <v>33</v>
       </c>
       <c r="G14">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -769,7 +769,7 @@
         <v>39</v>
       </c>
       <c r="G15">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -792,7 +792,7 @@
         <v>45</v>
       </c>
       <c r="G16">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -815,7 +815,7 @@
         <v>52</v>
       </c>
       <c r="G17">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -838,7 +838,7 @@
         <v>59</v>
       </c>
       <c r="G18">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -861,7 +861,7 @@
         <v>67</v>
       </c>
       <c r="G19">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -884,7 +884,7 @@
         <v>76</v>
       </c>
       <c r="G20">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2793,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="G103">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -2816,7 +2816,7 @@
         <v>3</v>
       </c>
       <c r="G104">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -2839,7 +2839,7 @@
         <v>4</v>
       </c>
       <c r="G105">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -2862,7 +2862,7 @@
         <v>5</v>
       </c>
       <c r="G106">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -2885,7 +2885,7 @@
         <v>7</v>
       </c>
       <c r="G107">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -2908,7 +2908,7 @@
         <v>9</v>
       </c>
       <c r="G108">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -2931,7 +2931,7 @@
         <v>12</v>
       </c>
       <c r="G109">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -2954,7 +2954,7 @@
         <v>15</v>
       </c>
       <c r="G110">
-        <v>60</v>
+        <v>400</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -2977,7 +2977,7 @@
         <v>19</v>
       </c>
       <c r="G111">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -3000,7 +3000,7 @@
         <v>23</v>
       </c>
       <c r="G112">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -3023,7 +3023,7 @@
         <v>28</v>
       </c>
       <c r="G113">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -3046,7 +3046,7 @@
         <v>33</v>
       </c>
       <c r="G114">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -3069,7 +3069,7 @@
         <v>39</v>
       </c>
       <c r="G115">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -3092,7 +3092,7 @@
         <v>45</v>
       </c>
       <c r="G116">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -3115,7 +3115,7 @@
         <v>52</v>
       </c>
       <c r="G117">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -3138,7 +3138,7 @@
         <v>59</v>
       </c>
       <c r="G118">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -3161,7 +3161,7 @@
         <v>67</v>
       </c>
       <c r="G119">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -3184,7 +3184,7 @@
         <v>76</v>
       </c>
       <c r="G120">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -5093,7 +5093,7 @@
         <v>2</v>
       </c>
       <c r="G203">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -5116,7 +5116,7 @@
         <v>3</v>
       </c>
       <c r="G204">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -5139,7 +5139,7 @@
         <v>4</v>
       </c>
       <c r="G205">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -5162,7 +5162,7 @@
         <v>5</v>
       </c>
       <c r="G206">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -5185,7 +5185,7 @@
         <v>7</v>
       </c>
       <c r="G207">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -5208,7 +5208,7 @@
         <v>9</v>
       </c>
       <c r="G208">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -5231,7 +5231,7 @@
         <v>12</v>
       </c>
       <c r="G209">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -5254,7 +5254,7 @@
         <v>15</v>
       </c>
       <c r="G210">
-        <v>60</v>
+        <v>400</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -5277,7 +5277,7 @@
         <v>19</v>
       </c>
       <c r="G211">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -5300,7 +5300,7 @@
         <v>23</v>
       </c>
       <c r="G212">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -5323,7 +5323,7 @@
         <v>28</v>
       </c>
       <c r="G213">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -5346,7 +5346,7 @@
         <v>33</v>
       </c>
       <c r="G214">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -5369,7 +5369,7 @@
         <v>39</v>
       </c>
       <c r="G215">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -5392,7 +5392,7 @@
         <v>45</v>
       </c>
       <c r="G216">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -5415,7 +5415,7 @@
         <v>52</v>
       </c>
       <c r="G217">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -5438,7 +5438,7 @@
         <v>59</v>
       </c>
       <c r="G218">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -5461,7 +5461,7 @@
         <v>67</v>
       </c>
       <c r="G219">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -5484,7 +5484,7 @@
         <v>76</v>
       </c>
       <c r="G220">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -7393,7 +7393,7 @@
         <v>2</v>
       </c>
       <c r="G303">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
@@ -7416,7 +7416,7 @@
         <v>3</v>
       </c>
       <c r="G304">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
@@ -7439,7 +7439,7 @@
         <v>4</v>
       </c>
       <c r="G305">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
@@ -7462,7 +7462,7 @@
         <v>5</v>
       </c>
       <c r="G306">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
@@ -7485,7 +7485,7 @@
         <v>7</v>
       </c>
       <c r="G307">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
@@ -7508,7 +7508,7 @@
         <v>9</v>
       </c>
       <c r="G308">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
@@ -7531,7 +7531,7 @@
         <v>12</v>
       </c>
       <c r="G309">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
@@ -7554,7 +7554,7 @@
         <v>15</v>
       </c>
       <c r="G310">
-        <v>60</v>
+        <v>400</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
@@ -7577,7 +7577,7 @@
         <v>19</v>
       </c>
       <c r="G311">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
@@ -7600,7 +7600,7 @@
         <v>23</v>
       </c>
       <c r="G312">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
@@ -7623,7 +7623,7 @@
         <v>28</v>
       </c>
       <c r="G313">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
@@ -7646,7 +7646,7 @@
         <v>33</v>
       </c>
       <c r="G314">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
@@ -7669,7 +7669,7 @@
         <v>39</v>
       </c>
       <c r="G315">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
@@ -7692,7 +7692,7 @@
         <v>45</v>
       </c>
       <c r="G316">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
@@ -7715,7 +7715,7 @@
         <v>52</v>
       </c>
       <c r="G317">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
@@ -7738,7 +7738,7 @@
         <v>59</v>
       </c>
       <c r="G318">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
@@ -7761,7 +7761,7 @@
         <v>67</v>
       </c>
       <c r="G319">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
@@ -7784,7 +7784,7 @@
         <v>76</v>
       </c>
       <c r="G320">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
@@ -9693,7 +9693,7 @@
         <v>2</v>
       </c>
       <c r="G403">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.3">
@@ -9716,7 +9716,7 @@
         <v>3</v>
       </c>
       <c r="G404">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.3">
@@ -9739,7 +9739,7 @@
         <v>4</v>
       </c>
       <c r="G405">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
@@ -9762,7 +9762,7 @@
         <v>5</v>
       </c>
       <c r="G406">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.3">
@@ -9785,7 +9785,7 @@
         <v>7</v>
       </c>
       <c r="G407">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.3">
@@ -9808,7 +9808,7 @@
         <v>9</v>
       </c>
       <c r="G408">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
@@ -9831,7 +9831,7 @@
         <v>12</v>
       </c>
       <c r="G409">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.3">
@@ -9854,7 +9854,7 @@
         <v>15</v>
       </c>
       <c r="G410">
-        <v>60</v>
+        <v>400</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.3">
@@ -9877,7 +9877,7 @@
         <v>19</v>
       </c>
       <c r="G411">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.3">
@@ -9900,7 +9900,7 @@
         <v>23</v>
       </c>
       <c r="G412">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.3">
@@ -9923,7 +9923,7 @@
         <v>28</v>
       </c>
       <c r="G413">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.3">
@@ -9946,7 +9946,7 @@
         <v>33</v>
       </c>
       <c r="G414">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.3">
@@ -9969,7 +9969,7 @@
         <v>39</v>
       </c>
       <c r="G415">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.3">
@@ -9992,7 +9992,7 @@
         <v>45</v>
       </c>
       <c r="G416">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.3">
@@ -10015,7 +10015,7 @@
         <v>52</v>
       </c>
       <c r="G417">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.3">
@@ -10038,7 +10038,7 @@
         <v>59</v>
       </c>
       <c r="G418">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.3">
@@ -10061,7 +10061,7 @@
         <v>67</v>
       </c>
       <c r="G419">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.3">
@@ -10084,7 +10084,7 @@
         <v>76</v>
       </c>
       <c r="G420">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.3">
@@ -11993,7 +11993,7 @@
         <v>2</v>
       </c>
       <c r="G503">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.3">
@@ -12016,7 +12016,7 @@
         <v>3</v>
       </c>
       <c r="G504">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.3">
@@ -12039,7 +12039,7 @@
         <v>4</v>
       </c>
       <c r="G505">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.3">
@@ -12062,7 +12062,7 @@
         <v>5</v>
       </c>
       <c r="G506">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.3">
@@ -12085,7 +12085,7 @@
         <v>7</v>
       </c>
       <c r="G507">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.3">
@@ -12108,7 +12108,7 @@
         <v>9</v>
       </c>
       <c r="G508">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.3">
@@ -12131,7 +12131,7 @@
         <v>12</v>
       </c>
       <c r="G509">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.3">
@@ -12154,7 +12154,7 @@
         <v>15</v>
       </c>
       <c r="G510">
-        <v>60</v>
+        <v>400</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.3">
@@ -12177,7 +12177,7 @@
         <v>19</v>
       </c>
       <c r="G511">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.3">
@@ -12200,7 +12200,7 @@
         <v>23</v>
       </c>
       <c r="G512">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.3">
@@ -12223,7 +12223,7 @@
         <v>28</v>
       </c>
       <c r="G513">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.3">
@@ -12246,7 +12246,7 @@
         <v>33</v>
       </c>
       <c r="G514">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.3">
@@ -12269,7 +12269,7 @@
         <v>39</v>
       </c>
       <c r="G515">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.3">
@@ -12292,7 +12292,7 @@
         <v>45</v>
       </c>
       <c r="G516">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.3">
@@ -12315,7 +12315,7 @@
         <v>52</v>
       </c>
       <c r="G517">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.3">
@@ -12338,7 +12338,7 @@
         <v>59</v>
       </c>
       <c r="G518">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.3">
@@ -12361,7 +12361,7 @@
         <v>67</v>
       </c>
       <c r="G519">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.3">
@@ -12384,7 +12384,7 @@
         <v>76</v>
       </c>
       <c r="G520">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.3">
@@ -14293,7 +14293,7 @@
         <v>2</v>
       </c>
       <c r="G603">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.3">
@@ -14316,7 +14316,7 @@
         <v>3</v>
       </c>
       <c r="G604">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.3">
@@ -14339,7 +14339,7 @@
         <v>4</v>
       </c>
       <c r="G605">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.3">
@@ -14362,7 +14362,7 @@
         <v>5</v>
       </c>
       <c r="G606">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.3">
@@ -14385,7 +14385,7 @@
         <v>7</v>
       </c>
       <c r="G607">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.3">
@@ -14408,7 +14408,7 @@
         <v>9</v>
       </c>
       <c r="G608">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.3">
@@ -14431,7 +14431,7 @@
         <v>12</v>
       </c>
       <c r="G609">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.3">
@@ -14454,7 +14454,7 @@
         <v>15</v>
       </c>
       <c r="G610">
-        <v>60</v>
+        <v>400</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.3">
@@ -14477,7 +14477,7 @@
         <v>19</v>
       </c>
       <c r="G611">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.3">
@@ -14500,7 +14500,7 @@
         <v>23</v>
       </c>
       <c r="G612">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.3">
@@ -14523,7 +14523,7 @@
         <v>28</v>
       </c>
       <c r="G613">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.3">
@@ -14546,7 +14546,7 @@
         <v>33</v>
       </c>
       <c r="G614">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.3">
@@ -14569,7 +14569,7 @@
         <v>39</v>
       </c>
       <c r="G615">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.3">
@@ -14592,7 +14592,7 @@
         <v>45</v>
       </c>
       <c r="G616">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.3">
@@ -14615,7 +14615,7 @@
         <v>52</v>
       </c>
       <c r="G617">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.3">
@@ -14638,7 +14638,7 @@
         <v>59</v>
       </c>
       <c r="G618">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.3">
@@ -14661,7 +14661,7 @@
         <v>67</v>
       </c>
       <c r="G619">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.3">
@@ -14684,7 +14684,7 @@
         <v>76</v>
       </c>
       <c r="G620">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.3">
@@ -16593,7 +16593,7 @@
         <v>2</v>
       </c>
       <c r="G703">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.3">
@@ -16616,7 +16616,7 @@
         <v>3</v>
       </c>
       <c r="G704">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.3">
@@ -16639,7 +16639,7 @@
         <v>4</v>
       </c>
       <c r="G705">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.3">
@@ -16662,7 +16662,7 @@
         <v>5</v>
       </c>
       <c r="G706">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.3">
@@ -16685,7 +16685,7 @@
         <v>7</v>
       </c>
       <c r="G707">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.3">
@@ -16708,7 +16708,7 @@
         <v>9</v>
       </c>
       <c r="G708">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.3">
@@ -16731,7 +16731,7 @@
         <v>12</v>
       </c>
       <c r="G709">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.3">
@@ -16754,7 +16754,7 @@
         <v>15</v>
       </c>
       <c r="G710">
-        <v>60</v>
+        <v>400</v>
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.3">
@@ -16777,7 +16777,7 @@
         <v>19</v>
       </c>
       <c r="G711">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.3">
@@ -16800,7 +16800,7 @@
         <v>23</v>
       </c>
       <c r="G712">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.3">
@@ -16823,7 +16823,7 @@
         <v>28</v>
       </c>
       <c r="G713">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.3">
@@ -16846,7 +16846,7 @@
         <v>33</v>
       </c>
       <c r="G714">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.3">
@@ -16869,7 +16869,7 @@
         <v>39</v>
       </c>
       <c r="G715">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.3">
@@ -16892,7 +16892,7 @@
         <v>45</v>
       </c>
       <c r="G716">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.3">
@@ -16915,7 +16915,7 @@
         <v>52</v>
       </c>
       <c r="G717">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.3">
@@ -16938,7 +16938,7 @@
         <v>59</v>
       </c>
       <c r="G718">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.3">
@@ -16961,7 +16961,7 @@
         <v>67</v>
       </c>
       <c r="G719">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.3">
@@ -16984,7 +16984,7 @@
         <v>76</v>
       </c>
       <c r="G720">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.3">
@@ -18893,7 +18893,7 @@
         <v>2</v>
       </c>
       <c r="G803">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.3">
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="G804">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.3">
@@ -18939,7 +18939,7 @@
         <v>4</v>
       </c>
       <c r="G805">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.3">
@@ -18962,7 +18962,7 @@
         <v>5</v>
       </c>
       <c r="G806">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.3">
@@ -18985,7 +18985,7 @@
         <v>7</v>
       </c>
       <c r="G807">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.3">
@@ -19008,7 +19008,7 @@
         <v>9</v>
       </c>
       <c r="G808">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.3">
@@ -19031,7 +19031,7 @@
         <v>12</v>
       </c>
       <c r="G809">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.3">
@@ -19054,7 +19054,7 @@
         <v>15</v>
       </c>
       <c r="G810">
-        <v>60</v>
+        <v>400</v>
       </c>
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.3">
@@ -19077,7 +19077,7 @@
         <v>19</v>
       </c>
       <c r="G811">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.3">
@@ -19100,7 +19100,7 @@
         <v>23</v>
       </c>
       <c r="G812">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.3">
@@ -19123,7 +19123,7 @@
         <v>28</v>
       </c>
       <c r="G813">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.3">
@@ -19146,7 +19146,7 @@
         <v>33</v>
       </c>
       <c r="G814">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.3">
@@ -19169,7 +19169,7 @@
         <v>39</v>
       </c>
       <c r="G815">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.3">
@@ -19192,7 +19192,7 @@
         <v>45</v>
       </c>
       <c r="G816">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.3">
@@ -19215,7 +19215,7 @@
         <v>52</v>
       </c>
       <c r="G817">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="818" spans="1:7" x14ac:dyDescent="0.3">
@@ -19238,7 +19238,7 @@
         <v>59</v>
       </c>
       <c r="G818">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.3">
@@ -19261,7 +19261,7 @@
         <v>67</v>
       </c>
       <c r="G819">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.3">
@@ -19284,7 +19284,7 @@
         <v>76</v>
       </c>
       <c r="G820">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.3">
@@ -21193,7 +21193,7 @@
         <v>2</v>
       </c>
       <c r="G903">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.3">
@@ -21216,7 +21216,7 @@
         <v>3</v>
       </c>
       <c r="G904">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="905" spans="1:7" x14ac:dyDescent="0.3">
@@ -21239,7 +21239,7 @@
         <v>4</v>
       </c>
       <c r="G905">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="906" spans="1:7" x14ac:dyDescent="0.3">
@@ -21262,7 +21262,7 @@
         <v>5</v>
       </c>
       <c r="G906">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="907" spans="1:7" x14ac:dyDescent="0.3">
@@ -21285,7 +21285,7 @@
         <v>7</v>
       </c>
       <c r="G907">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="908" spans="1:7" x14ac:dyDescent="0.3">
@@ -21308,7 +21308,7 @@
         <v>9</v>
       </c>
       <c r="G908">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="909" spans="1:7" x14ac:dyDescent="0.3">
@@ -21331,7 +21331,7 @@
         <v>12</v>
       </c>
       <c r="G909">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="910" spans="1:7" x14ac:dyDescent="0.3">
@@ -21354,7 +21354,7 @@
         <v>15</v>
       </c>
       <c r="G910">
-        <v>60</v>
+        <v>400</v>
       </c>
     </row>
     <row r="911" spans="1:7" x14ac:dyDescent="0.3">
@@ -21377,7 +21377,7 @@
         <v>19</v>
       </c>
       <c r="G911">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="912" spans="1:7" x14ac:dyDescent="0.3">
@@ -21400,7 +21400,7 @@
         <v>23</v>
       </c>
       <c r="G912">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.3">
@@ -21423,7 +21423,7 @@
         <v>28</v>
       </c>
       <c r="G913">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="914" spans="1:7" x14ac:dyDescent="0.3">
@@ -21446,7 +21446,7 @@
         <v>33</v>
       </c>
       <c r="G914">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="915" spans="1:7" x14ac:dyDescent="0.3">
@@ -21469,7 +21469,7 @@
         <v>39</v>
       </c>
       <c r="G915">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.3">
@@ -21492,7 +21492,7 @@
         <v>45</v>
       </c>
       <c r="G916">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.3">
@@ -21515,7 +21515,7 @@
         <v>52</v>
       </c>
       <c r="G917">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.3">
@@ -21538,7 +21538,7 @@
         <v>59</v>
       </c>
       <c r="G918">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.3">
@@ -21561,7 +21561,7 @@
         <v>67</v>
       </c>
       <c r="G919">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="920" spans="1:7" x14ac:dyDescent="0.3">
@@ -21584,7 +21584,7 @@
         <v>76</v>
       </c>
       <c r="G920">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="921" spans="1:7" x14ac:dyDescent="0.3">
@@ -23460,7 +23460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317E864B-15EB-4948-9DE5-0E4F083F819F}">
   <dimension ref="A1:E1501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -23514,7 +23514,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -23531,7 +23531,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -23548,7 +23548,7 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -23565,7 +23565,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -23582,7 +23582,7 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -23599,7 +23599,7 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -23616,7 +23616,7 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -23633,7 +23633,7 @@
         <v>36</v>
       </c>
       <c r="E10">
-        <v>80</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -23650,7 +23650,7 @@
         <v>45</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -23667,7 +23667,7 @@
         <v>55</v>
       </c>
       <c r="E12">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -23684,7 +23684,7 @@
         <v>66</v>
       </c>
       <c r="E13">
-        <v>250</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -23701,7 +23701,7 @@
         <v>78</v>
       </c>
       <c r="E14">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -23718,7 +23718,7 @@
         <v>91</v>
       </c>
       <c r="E15">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -23735,7 +23735,7 @@
         <v>105</v>
       </c>
       <c r="E16">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -23752,7 +23752,7 @@
         <v>120</v>
       </c>
       <c r="E17">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -23769,7 +23769,7 @@
         <v>136</v>
       </c>
       <c r="E18">
-        <v>900</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -23786,7 +23786,7 @@
         <v>153</v>
       </c>
       <c r="E19">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -23803,7 +23803,7 @@
         <v>171</v>
       </c>
       <c r="E20">
-        <v>1200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
